--- a/bin/print/DaySaleReport.xlsx
+++ b/bin/print/DaySaleReport.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Summary" localSheetId="0">Sheet1!$A$1:$R$77</definedName>
+    <definedName name="Summary" localSheetId="0">Sheet1!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -19,8 +19,9 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Summary1" type="6" refreshedVersion="4" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS\bin\print\DaySaleReport.txt" tab="0" delimiter="|">
-      <textFields count="17">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Shaw\bin\print\DaySaleReport.txt" tab="0" delimiter="|">
+      <textFields count="18">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -1902,23 +1903,7 @@
       <c r="Q76" s="10"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="10"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
